--- a/stocks/data/打新统计.xlsx
+++ b/stocks/data/打新统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>基金名称</t>
   </si>
@@ -22,28 +22,43 @@
     <t>基金公司名称</t>
   </si>
   <si>
-    <t>是否全部卖出</t>
-  </si>
-  <si>
-    <t>原持有股数</t>
-  </si>
-  <si>
-    <t>已卖出股数</t>
-  </si>
-  <si>
-    <t>卖出持股比例</t>
-  </si>
-  <si>
-    <t>科创板卖出盈利金额</t>
-  </si>
-  <si>
-    <t>科创股票成本金额</t>
-  </si>
-  <si>
-    <t>科创打新收益率</t>
-  </si>
-  <si>
-    <t>非科创板打新收益</t>
+    <t>是否全部卖出（科）</t>
+  </si>
+  <si>
+    <t>原持有股数（科）</t>
+  </si>
+  <si>
+    <t>已卖出股数（科）</t>
+  </si>
+  <si>
+    <t>卖出持股比例（科）</t>
+  </si>
+  <si>
+    <t>科创板股票成本金额</t>
+  </si>
+  <si>
+    <t>科创板打新收益</t>
+  </si>
+  <si>
+    <t>是否全部卖出（创）</t>
+  </si>
+  <si>
+    <t>原持有股数（创）</t>
+  </si>
+  <si>
+    <t>已卖出股数（创）</t>
+  </si>
+  <si>
+    <t>卖出持股比例（创）</t>
+  </si>
+  <si>
+    <t>创业板股票成本金额</t>
+  </si>
+  <si>
+    <t>创业板打新收益</t>
+  </si>
+  <si>
+    <t>主板打新收益</t>
   </si>
   <si>
     <t>打新总收益</t>
@@ -52,13 +67,16 @@
     <t>备注</t>
   </si>
   <si>
-    <t>嘉实创新成长</t>
-  </si>
-  <si>
-    <t>嘉实基金</t>
+    <t>嘉实创新成长混合</t>
+  </si>
+  <si>
+    <t>嘉实基金管理有限公司</t>
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -416,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,43 +477,73 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>1.8654</v>
+        <v>1.081</v>
       </c>
       <c r="F2">
-        <v>1.8654</v>
+        <v>1.081</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>593995.4099999999</v>
+        <v>570779.49</v>
       </c>
       <c r="I2">
-        <v>509220.9300000001</v>
-      </c>
-      <c r="J2">
-        <v>1.166478781616458</v>
+        <v>509204.89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>1565154.33</v>
+        <v>3.4444</v>
       </c>
       <c r="L2">
-        <v>2159149.74</v>
+        <v>3.2145</v>
+      </c>
+      <c r="M2">
+        <v>0.9332539774706771</v>
+      </c>
+      <c r="N2">
+        <v>404760.29</v>
+      </c>
+      <c r="O2">
+        <v>898858.1699999999</v>
+      </c>
+      <c r="P2">
+        <v>187323.9300000001</v>
+      </c>
+      <c r="Q2">
+        <v>1659056.52</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/data/打新统计.xlsx
+++ b/stocks/data/打新统计.xlsx
@@ -507,43 +507,43 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>1.081</v>
+        <v>1.4213</v>
       </c>
       <c r="F2">
-        <v>1.081</v>
+        <v>1.4213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>570779.49</v>
+        <v>298568.21</v>
       </c>
       <c r="I2">
-        <v>509204.89</v>
+        <v>284131.37</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2">
-        <v>3.4444</v>
+        <v>3.2894</v>
       </c>
       <c r="L2">
-        <v>3.2145</v>
+        <v>3.0563</v>
       </c>
       <c r="M2">
-        <v>0.9332539774706771</v>
+        <v>0.9291360126466832</v>
       </c>
       <c r="N2">
-        <v>404760.29</v>
+        <v>557620.34</v>
       </c>
       <c r="O2">
-        <v>898858.1699999999</v>
+        <v>1396990.1</v>
       </c>
       <c r="P2">
-        <v>187323.9300000001</v>
+        <v>198784.7</v>
       </c>
       <c r="Q2">
-        <v>1659056.52</v>
+        <v>1984403.79</v>
       </c>
     </row>
   </sheetData>

--- a/stocks/data/打新统计.xlsx
+++ b/stocks/data/打新统计.xlsx
@@ -507,43 +507,43 @@
         <v>19</v>
       </c>
       <c r="E2">
-        <v>1.4213</v>
+        <v>0.3114</v>
       </c>
       <c r="F2">
-        <v>1.4213</v>
+        <v>0.3114</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>298568.21</v>
+        <v>111263.22</v>
       </c>
       <c r="I2">
-        <v>284131.37</v>
+        <v>214194.38</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
       </c>
       <c r="K2">
-        <v>3.2894</v>
+        <v>2.0454</v>
       </c>
       <c r="L2">
-        <v>3.0563</v>
+        <v>1.8884</v>
       </c>
       <c r="M2">
-        <v>0.9291360126466832</v>
+        <v>0.9232423975750466</v>
       </c>
       <c r="N2">
-        <v>557620.34</v>
+        <v>486699.5400000001</v>
       </c>
       <c r="O2">
-        <v>1396990.1</v>
+        <v>1021617.88</v>
       </c>
       <c r="P2">
-        <v>198784.7</v>
+        <v>29834.86</v>
       </c>
       <c r="Q2">
-        <v>1984403.79</v>
+        <v>1286333.4</v>
       </c>
     </row>
   </sheetData>
